--- a/files/samples/CLASS 1-4 NS-1.xlsx
+++ b/files/samples/CLASS 1-4 NS-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="14805" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8+G8</f>
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
         <v>45</v>
       </c>
       <c r="I8" s="7"/>
@@ -850,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C9:G9,"&lt;&gt;#AB")</f>
         <v>51</v>
       </c>
       <c r="I9" s="7"/>
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H10:H56" si="0">SUMIF(C10:G10,"&lt;&gt;#AB")</f>
         <v>44</v>
       </c>
       <c r="I10" s="7"/>
